--- a/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/modulat/BAG_SSM.xlsx
+++ b/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/modulat/BAG_SSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-ambient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BA1A55-FE19-904A-A43B-1113685CAE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012CFFAC-9111-8044-9241-365D10BE8D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41320" yWindow="1600" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-58280" yWindow="-2200" windowWidth="41120" windowHeight="24820" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>key</t>
   </si>
@@ -225,30 +225,43 @@
     <t>BLOCK_APP_SYSTEM</t>
   </si>
   <si>
+    <t>zero.ssm</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
+  </si>
+  <si>
     <t>SSM</t>
-  </si>
-  <si>
-    <t>zero.ssm</t>
-  </si>
-  <si>
-    <t>System Configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME_ABBR:config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,7 +269,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,7 +277,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,36 +725,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -759,8 +773,9 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,8 +809,11 @@
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -829,8 +847,11 @@
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="L4" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -839,10 +860,10 @@
         <v>46</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5">
         <v>11000</v>
@@ -855,13 +876,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -880,7 +904,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -915,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -953,7 +977,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
